--- a/DataCW3M/CW3MdigitalHandbook/CW3M_LULC_NWI_crosswalk.xlsx
+++ b/DataCW3M/CW3MdigitalHandbook/CW3M_LULC_NWI_crosswalk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CW3M.git\trunk\DataCW3M\CW3MdigitalHandbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04C174AB-048A-415C-AAEF-721F17792DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2021F410-6122-403F-91AD-F7236368D578}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-7425" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="118">
   <si>
     <t>LULC_A code</t>
   </si>
@@ -765,9 +765,9 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B65"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1210,8 +1210,19 @@
       </c>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="4">
         <v>6243</v>
@@ -1227,8 +1238,19 @@
       </c>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="4">
         <v>6244</v>
